--- a/Backend/Excel/Student Aid.xlsx
+++ b/Backend/Excel/Student Aid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bipularyal/Desktop/FISK_IPDES_Proj/Backend/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CE32CE-FC45-7442-81C3-DED531064B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE6DA89-D7B8-4E4C-B6A3-7CDC6B18048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{4AFF2A15-579A-4D48-88E1-B90E2DC0CDA5}"/>
   </bookViews>
@@ -41,22 +41,22 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Total Aid</t>
-  </si>
-  <si>
     <t>Pell Recipients</t>
   </si>
   <si>
-    <t>Percent of Aid Receivers</t>
+    <t>Percent of students with institutional aid</t>
   </si>
   <si>
-    <t>Average Aid</t>
+    <t>totalAid</t>
   </si>
   <si>
-    <t>Average Institutional Aid</t>
+    <t>percentOfAidReceivers</t>
   </si>
   <si>
-    <t>Percent of students with institutional aid</t>
+    <t>AverageAid</t>
+  </si>
+  <si>
+    <t>AverageInstitutionalAid</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,22 +447,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
